--- a/src/main/resources/Data/DataUser.xlsx
+++ b/src/main/resources/Data/DataUser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SQA\Documents\IdeaProjects\fakeStoreRetoServicios\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF7841E-3EC1-4435-A791-3CAE8F680CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65146248-390F-46CC-B797-8B5489F52C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="210" windowWidth="20190" windowHeight="10590" xr2:uid="{462A54B6-A476-4091-9ABD-CA2E9025D46A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Email</t>
   </si>
@@ -59,15 +59,9 @@
     <t>prueba@service.co</t>
   </si>
   <si>
-    <t xml:space="preserve">pruLukas </t>
-  </si>
-  <si>
     <t xml:space="preserve">Lukas23 </t>
   </si>
   <si>
-    <t>Jimenez</t>
-  </si>
-  <si>
     <t xml:space="preserve">/users </t>
   </si>
   <si>
@@ -84,6 +78,18 @@
   </si>
   <si>
     <t>1-570-236-7033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JiLukas </t>
+  </si>
+  <si>
+    <t>Mendez</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -445,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61507D55-75CA-4675-AAAE-9D27C4F5690F}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,9 +462,9 @@
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -479,36 +485,42 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -517,7 +529,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -526,7 +538,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -535,7 +547,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -544,7 +556,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -553,7 +565,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -562,7 +574,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -571,7 +583,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -580,7 +592,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -590,7 +602,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -599,7 +611,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -608,7 +620,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>

--- a/src/main/resources/Data/DataUser.xlsx
+++ b/src/main/resources/Data/DataUser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SQA\Documents\IdeaProjects\fakeStoreRetoServicios\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65146248-390F-46CC-B797-8B5489F52C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D59889-D349-423C-96F3-8D39520A7766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="210" windowWidth="20190" windowHeight="10590" xr2:uid="{462A54B6-A476-4091-9ABD-CA2E9025D46A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Email</t>
   </si>
@@ -59,9 +59,6 @@
     <t>prueba@service.co</t>
   </si>
   <si>
-    <t xml:space="preserve">Lukas23 </t>
-  </si>
-  <si>
     <t xml:space="preserve">/users </t>
   </si>
   <si>
@@ -71,25 +68,25 @@
     <t>200</t>
   </si>
   <si>
-    <t xml:space="preserve">Lucas  </t>
-  </si>
-  <si>
     <t>Phone</t>
   </si>
   <si>
     <t>1-570-236-7033</t>
   </si>
   <si>
-    <t xml:space="preserve">JiLukas </t>
-  </si>
-  <si>
-    <t>Mendez</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>Sol</t>
+  </si>
+  <si>
+    <t>Sole123</t>
+  </si>
+  <si>
+    <t>Tapias</t>
   </si>
 </sst>
 </file>
@@ -454,7 +451,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +461,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -485,15 +482,15 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -502,22 +499,22 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">

--- a/src/main/resources/Data/DataUser.xlsx
+++ b/src/main/resources/Data/DataUser.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SQA\Documents\IdeaProjects\fakeStoreRetoServicios\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D59889-D349-423C-96F3-8D39520A7766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC9223A-9697-4981-B109-B1A7332FDF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="210" windowWidth="20190" windowHeight="10590" xr2:uid="{462A54B6-A476-4091-9ABD-CA2E9025D46A}"/>
+    <workbookView xWindow="765" yWindow="585" windowWidth="19710" windowHeight="10140" xr2:uid="{462A54B6-A476-4091-9ABD-CA2E9025D46A}"/>
   </bookViews>
   <sheets>
     <sheet name="InfoUser" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Email</t>
   </si>
@@ -59,34 +59,37 @@
     <t>prueba@service.co</t>
   </si>
   <si>
-    <t xml:space="preserve">/users </t>
-  </si>
-  <si>
     <t>Endpoint</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>200</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>/users</t>
+  </si>
+  <si>
     <t>Phone</t>
   </si>
   <si>
-    <t>1-570-236-7033</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Sol</t>
-  </si>
-  <si>
-    <t>Sole123</t>
-  </si>
-  <si>
-    <t>Tapias</t>
+    <t>1-678-345-9856</t>
+  </si>
+  <si>
+    <t>Servicios</t>
+  </si>
+  <si>
+    <t>Serv1ice</t>
+  </si>
+  <si>
+    <t>Pruebas</t>
+  </si>
+  <si>
+    <t>PruebaS</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +464,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -482,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>12</v>
@@ -490,28 +493,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
